--- a/static/seating1.xlsx
+++ b/static/seating1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\Projects\conference-website-template\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikujebe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7944F044-997B-4D26-A3D2-2E60C4613629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E8628C-3C99-4D4B-A8C7-8C8D93071201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{906A00D8-6D4A-4390-A49F-A0DD539D48A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{906A00D8-6D4A-4390-A49F-A0DD539D48A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,17 +30,16 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>ALADE-AKINYEMI, LOLU</t>
   </si>
@@ -159,9 +158,6 @@
     <t>EBADAN, PHILLIAN AKHERE</t>
   </si>
   <si>
-    <t>Salako Jamiu</t>
-  </si>
-  <si>
     <t>IWUEZE-IFEANYI, CHIDINMA JOY</t>
   </si>
   <si>
@@ -213,10 +209,10 @@
     <t>BEDE-NWOKOYE, UGOCHI DAWN</t>
   </si>
   <si>
-    <t>Temitope Odeniyi</t>
-  </si>
-  <si>
-    <t>Moses Ekpo</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TABLE</t>
   </si>
   <si>
     <t>TABLE 1</t>
@@ -253,13 +249,31 @@
   </si>
   <si>
     <t>TABLE 12</t>
+  </si>
+  <si>
+    <t>ODENIYI, TEMITOPE</t>
+  </si>
+  <si>
+    <t>EKPO, MOSES</t>
+  </si>
+  <si>
+    <t>SALAKO, JAMIU</t>
+  </si>
+  <si>
+    <t>ARAGHO, JEMINE MICHAEL</t>
+  </si>
+  <si>
+    <t>SOBOLA, AUGUSTINA IFEYINWA</t>
+  </si>
+  <si>
+    <t>UKAP, GEORGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,7 +320,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,8 +333,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -343,48 +375,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -405,26 +402,48 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -773,581 +792,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C479A1-1DD5-4116-95CC-159BC85C45B8}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52.625" defaultRowHeight="9.75"/>
+  <sheetFormatPr defaultColWidth="52.6328125" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.9375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.0625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="52.625" style="7"/>
+    <col min="1" max="1" width="29.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="52.6328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="13"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B23" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B24" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="13"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="13"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B32" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B33" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
-        <v>27</v>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B34" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>28</v>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B35" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>29</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="18"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B38" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="B39" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>32</v>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B40" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
-        <v>34</v>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B42" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="6" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B44" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B45" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
-        <v>37</v>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B46" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="6" t="s">
-        <v>39</v>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B48" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="11"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
-        <v>42</v>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="16"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B52" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>43</v>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B53" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>44</v>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B54" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="13"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="6" t="s">
-        <v>45</v>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B56" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="15"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B59" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2" t="s">
-        <v>49</v>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B60" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="13"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2" t="s">
-        <v>50</v>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B62" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="3" t="s">
-        <v>51</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B63" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="6" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="15"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B66" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="16"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="11"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="B75" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="1">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="1">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="20">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" s="1">
-        <v>12</v>
-      </c>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="9"/>
+      <c r="B78" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B76" xr:uid="{72C479A1-1DD5-4116-95CC-159BC85C45B8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
+      <sortCondition ref="B1:B76"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="12">
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A65:B65"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:A71">
+  <conditionalFormatting sqref="A72:A76 A65:A70 A3:A63">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/seating1.xlsx
+++ b/static/seating1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikujebe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\Projects\conference-website-template\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E8628C-3C99-4D4B-A8C7-8C8D93071201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63925B6-E265-4564-9A56-DBA219E7E822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{906A00D8-6D4A-4390-A49F-A0DD539D48A3}"/>
+    <workbookView xWindow="4732" yWindow="645" windowWidth="14400" windowHeight="7283" xr2:uid="{906A00D8-6D4A-4390-A49F-A0DD539D48A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$37</definedName>
@@ -30,16 +31,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>ALADE-AKINYEMI, LOLU</t>
   </si>
@@ -209,12 +211,6 @@
     <t>BEDE-NWOKOYE, UGOCHI DAWN</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>TABLE</t>
-  </si>
-  <si>
     <t>TABLE 1</t>
   </si>
   <si>
@@ -257,9 +253,6 @@
     <t>EKPO, MOSES</t>
   </si>
   <si>
-    <t>SALAKO, JAMIU</t>
-  </si>
-  <si>
     <t>ARAGHO, JEMINE MICHAEL</t>
   </si>
   <si>
@@ -267,13 +260,28 @@
   </si>
   <si>
     <t>UKAP, GEORGE</t>
+  </si>
+  <si>
+    <t>JAMIU SALAKO</t>
+  </si>
+  <si>
+    <t>GEORGE UKAP</t>
+  </si>
+  <si>
+    <t>EKPO. MOSES</t>
+  </si>
+  <si>
+    <t>KUJEBE, ADETAYO MICHAEL</t>
+  </si>
+  <si>
+    <t>DABUP-PALMER, SIMI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +327,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +366,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -375,13 +396,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -392,57 +450,104 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -451,7 +556,17 @@
     <cellStyle name="Normal 10" xfId="1" xr:uid="{0DED01F4-18C7-4A84-8674-D82EEDB9B6E1}"/>
     <cellStyle name="Normal 44" xfId="2" xr:uid="{19A10D8C-5AB6-4D62-94F6-E63A35EDDF12}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -792,634 +907,824 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C479A1-1DD5-4116-95CC-159BC85C45B8}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:B77"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52.6328125" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="52.625" defaultRowHeight="9.75"/>
   <cols>
-    <col min="1" max="1" width="29.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="52.6328125" style="7"/>
+    <col min="1" max="1" width="29.9375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="52.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="17"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B42" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B45" s="30">
         <v>8</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="30">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="15"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="35">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="15"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="35">
         <v>11</v>
       </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="15"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="35">
         <v>12</v>
       </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="15"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="15"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="15"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="B72" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="18"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="B73" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="16"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="B74" s="35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="16"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="15"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="15"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="16"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="1">
+      <c r="B75" s="35">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" s="1">
+    <row r="76" spans="1:3">
+      <c r="A76" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="35">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
+    <row r="77" spans="1:3">
+      <c r="A77" s="12"/>
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B76" xr:uid="{72C479A1-1DD5-4116-95CC-159BC85C45B8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
-      <sortCondition ref="B1:B76"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="12">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A65:B65"/>
+  <mergeCells count="10">
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A44:C44"/>
   </mergeCells>
-  <conditionalFormatting sqref="A72:A76 A65:A70 A3:A63">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A70 A57 A50 A44 A38 A31 A25 A19 A13 A7">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B43762E-D76F-4081-9008-72279991F632}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.3125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.25">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.25">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29.25">
+      <c r="A7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="39">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29.25">
+      <c r="A14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="39">
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="11">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A15:A19 A8:A13 A1:A6">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>